--- a/data/payrates.xlsx
+++ b/data/payrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insulpro\system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A81FD6-230F-49AA-905C-89CC87DB8C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD30091-20C3-44BD-BA32-6559643702CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{087E86B0-ED6E-48E9-A68B-D49D65BA4E1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{087E86B0-ED6E-48E9-A68B-D49D65BA4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Shop Pay</t>
+  </si>
+  <si>
+    <t>Vacation Pay</t>
   </si>
 </sst>
 </file>
@@ -494,19 +497,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D0CAA8-346F-4A16-B548-3CEDBECDD844}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +525,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -530,7 +533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -538,7 +541,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -546,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -554,7 +557,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -562,7 +565,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -578,7 +581,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -586,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -594,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -610,7 +613,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -626,7 +629,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -634,7 +637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -642,7 +645,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -650,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -666,7 +669,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -674,7 +677,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -682,7 +685,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -690,7 +693,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -706,7 +709,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -714,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -722,12 +725,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/payrates.xlsx
+++ b/data/payrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD30091-20C3-44BD-BA32-6559643702CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C672C7-EBBC-47A9-8185-024C189610CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{087E86B0-ED6E-48E9-A68B-D49D65BA4E1B}"/>
   </bookViews>
@@ -132,9 +132,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -161,8 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,245 +516,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D0CAA8-346F-4A16-B548-3CEDBECDD844}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>130</v>
       </c>
     </row>
